--- a/FRAS/Attendance/sheet_Dummy Attendance.xlsx
+++ b/FRAS/Attendance/sheet_Dummy Attendance.xlsx
@@ -2954,28 +2954,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:R5"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="A7:S7"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="D5:R5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -5017,27 +5017,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K8:M8"/>
     <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -7043,21 +7043,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:R1"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -9902,26 +9902,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="M8:O8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="C7:M7"/>
     <mergeCell ref="A3:Y3"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
